--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11740.92513293799</v>
+        <v>2336444.101454662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11740.92513293799</v>
+        <v>2336444.101454662</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38797.39975286106</v>
+        <v>2349491.122417269</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38797.39975286106</v>
+        <v>2349491.122417269</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342555660.638747</v>
+        <v>53532489.37665106</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12627.86847727779</v>
+        <v>1292304.365590812</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24145.58310978077</v>
+        <v>2394259.275881831</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35663.29774228373</v>
+        <v>3496214.186172853</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48402.88532962836</v>
+        <v>4531962.133509686</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61142.47291697297</v>
+        <v>5567710.080846519</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73882.06050431756</v>
+        <v>6603458.028183348</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86666.31233408641</v>
+        <v>7641475.29915654</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99439.16052749168</v>
+        <v>8677223.246493367</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111954.4014192434</v>
+        <v>9698290.418872233</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124526.2351580336</v>
+        <v>10733699.23562448</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>137098.0190944135</v>
+        <v>11769108.05237673</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149669.8528332037</v>
+        <v>12804516.86912899</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>162241.6865719939</v>
+        <v>13839925.68588125</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>174923.8227728255</v>
+        <v>14863611.27572349</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187573.8111512328</v>
+        <v>15883640.71984936</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>216</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>24</v>
